--- a/Optimizer/Optimizer_project_config/factor_constraint_config.xlsx
+++ b/Optimizer/Optimizer_project_config/factor_constraint_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimizer_test_kai\Optimizer_project_config\Optimizer_Python_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Optimizer\Optimizer_project_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA471C-FADA-49FC-9256-A0F16A1C76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1091D485-1441-4282-AD92-90188F8FC325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upper" sheetId="3" r:id="rId1"/>
@@ -280,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +292,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -299,12 +300,14 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -312,6 +315,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -319,6 +323,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,6 +331,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -334,11 +340,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -718,21 +726,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="11" width="18.5" customWidth="1"/>
     <col min="12" max="15" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -779,7 +788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -826,7 +835,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -873,7 +882,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,7 +929,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -967,7 +976,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="5" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -2189,54 +2198,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2518,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2667,14 +2676,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="5" width="18.5" customWidth="1"/>
@@ -2686,7 +2696,7 @@
     <col min="15" max="15" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +2743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2968,7 +2978,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="5" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3119,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3166,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3250,7 +3260,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3297,7 +3307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3344,7 +3354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -3391,7 +3401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3438,7 +3448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -3485,7 +3495,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3532,7 +3542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -3626,7 +3636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -3767,7 +3777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3908,7 +3918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -3955,7 +3965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -4049,7 +4059,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -4096,7 +4106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -4143,7 +4153,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -4190,7 +4200,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4331,7 +4341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -4378,7 +4388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -4425,7 +4435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -4472,7 +4482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4519,7 +4529,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -4621,19 +4631,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4644,7 +4655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4655,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -4677,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -4688,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -4699,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -4710,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -4721,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -4732,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -4743,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4754,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -4765,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -4776,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -4787,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -4798,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -4809,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -4820,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -4831,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -4853,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -4875,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -4886,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -4897,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -4908,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -4919,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -4930,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -4941,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -4952,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -4963,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -4974,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4985,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -4996,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -5007,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -5018,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -5029,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -5040,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -5051,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -5062,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
